--- a/Trabajos/Trabajo_1/Code/mtVRP_Cristian_Alzate_Urrea_constructivo.xlsx
+++ b/Trabajos/Trabajo_1/Code/mtVRP_Cristian_Alzate_Urrea_constructivo.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP1.txt" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP10.txt" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP11.txt" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP12.txt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP2.txt" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP3.txt" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP4.txt" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP5.txt" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP6.txt" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP7.txt" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP8.txt" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP9.txt" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mtVRP1.txt" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="mtVRP10.txt" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="mtVRP11.txt" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="mtVRP12.txt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="mtVRP2.txt" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="mtVRP3.txt" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="mtVRP4.txt" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="mtVRP5.txt" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="mtVRP6.txt" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="mtVRP7.txt" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="mtVRP8.txt" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="mtVRP9.txt" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -827,7 +827,7 @@
         <v>1196.924009206547</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02636551856994629</v>
+        <v>0.01434636116027832</v>
       </c>
     </row>
   </sheetData>
@@ -1406,7 +1406,7 @@
         <v>1641.509741456554</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05729985237121582</v>
+        <v>0.02705216407775879</v>
       </c>
     </row>
   </sheetData>
@@ -2136,7 +2136,7 @@
         <v>1769.359888306368</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1039516925811768</v>
+        <v>0.04672360420227051</v>
       </c>
     </row>
   </sheetData>
@@ -2866,7 +2866,7 @@
         <v>1769.359888306368</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1108307838439941</v>
+        <v>0.04723167419433594</v>
       </c>
     </row>
   </sheetData>
@@ -3105,7 +3105,7 @@
         <v>658.7837525786396</v>
       </c>
       <c r="B5" t="n">
-        <v>0.006149768829345703</v>
+        <v>0.004387378692626953</v>
       </c>
     </row>
   </sheetData>
@@ -3557,7 +3557,7 @@
         <v>1621.788774186502</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03221225738525391</v>
+        <v>0.0195620059967041</v>
       </c>
     </row>
   </sheetData>
@@ -3980,7 +3980,7 @@
         <v>1284.911204069567</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02564167976379395</v>
+        <v>0.01467561721801758</v>
       </c>
     </row>
   </sheetData>
@@ -4403,7 +4403,7 @@
         <v>1284.911204069567</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02455997467041016</v>
+        <v>0.01365566253662109</v>
       </c>
     </row>
   </sheetData>
@@ -4743,7 +4743,7 @@
         <v>1191.328027220533</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0185091495513916</v>
+        <v>0.008791446685791016</v>
       </c>
     </row>
   </sheetData>
@@ -5094,7 +5094,7 @@
         <v>1191.328027220533</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01614785194396973</v>
+        <v>0.00816035270690918</v>
       </c>
     </row>
   </sheetData>
@@ -5456,7 +5456,7 @@
         <v>1191.328027220533</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01620125770568848</v>
+        <v>0.008271932601928711</v>
       </c>
     </row>
   </sheetData>
@@ -5854,7 +5854,7 @@
         <v>1196.924009206547</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02897500991821289</v>
+        <v>0.0138709545135498</v>
       </c>
     </row>
   </sheetData>

--- a/Trabajos/Trabajo_1/Code/mtVRP_Cristian_Alzate_Urrea_constructivo.xlsx
+++ b/Trabajos/Trabajo_1/Code/mtVRP_Cristian_Alzate_Urrea_constructivo.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="mtVRP1.txt" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="mtVRP10.txt" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="mtVRP11.txt" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="mtVRP12.txt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="mtVRP2.txt" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="mtVRP3.txt" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="mtVRP4.txt" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="mtVRP5.txt" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="mtVRP6.txt" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mtVRP7.txt" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mtVRP8.txt" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mtVRP9.txt" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP1.txt" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP10.txt" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP11.txt" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP12.txt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP2.txt" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP3.txt" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP4.txt" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP5.txt" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP6.txt" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP7.txt" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP8.txt" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP9.txt" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -827,7 +827,7 @@
         <v>1196.924009206547</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01434636116027832</v>
+        <v>0.01435637474060059</v>
       </c>
     </row>
   </sheetData>
@@ -1406,7 +1406,7 @@
         <v>1641.509741456554</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02705216407775879</v>
+        <v>0.0326235294342041</v>
       </c>
     </row>
   </sheetData>
@@ -2136,7 +2136,7 @@
         <v>1769.359888306368</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04672360420227051</v>
+        <v>0.05327868461608887</v>
       </c>
     </row>
   </sheetData>
@@ -2866,7 +2866,7 @@
         <v>1769.359888306368</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04723167419433594</v>
+        <v>0.06597590446472168</v>
       </c>
     </row>
   </sheetData>
@@ -3105,7 +3105,7 @@
         <v>658.7837525786396</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004387378692626953</v>
+        <v>0.003927230834960938</v>
       </c>
     </row>
   </sheetData>
@@ -3557,7 +3557,7 @@
         <v>1621.788774186502</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0195620059967041</v>
+        <v>0.01865839958190918</v>
       </c>
     </row>
   </sheetData>
@@ -3980,7 +3980,7 @@
         <v>1284.911204069567</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01467561721801758</v>
+        <v>0.0137486457824707</v>
       </c>
     </row>
   </sheetData>
@@ -4403,7 +4403,7 @@
         <v>1284.911204069567</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01365566253662109</v>
+        <v>0.01383709907531738</v>
       </c>
     </row>
   </sheetData>
@@ -4743,7 +4743,7 @@
         <v>1191.328027220533</v>
       </c>
       <c r="B6" t="n">
-        <v>0.008791446685791016</v>
+        <v>0.008395671844482422</v>
       </c>
     </row>
   </sheetData>
@@ -5094,7 +5094,7 @@
         <v>1191.328027220533</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00816035270690918</v>
+        <v>0.01135802268981934</v>
       </c>
     </row>
   </sheetData>
@@ -5456,7 +5456,7 @@
         <v>1191.328027220533</v>
       </c>
       <c r="B8" t="n">
-        <v>0.008271932601928711</v>
+        <v>0.009534597396850586</v>
       </c>
     </row>
   </sheetData>
@@ -5854,7 +5854,7 @@
         <v>1196.924009206547</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0138709545135498</v>
+        <v>0.01431107521057129</v>
       </c>
     </row>
   </sheetData>

--- a/Trabajos/Trabajo_1/Code/mtVRP_Cristian_Alzate_Urrea_constructivo.xlsx
+++ b/Trabajos/Trabajo_1/Code/mtVRP_Cristian_Alzate_Urrea_constructivo.xlsx
@@ -7,19 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP1.txt" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP10.txt" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP11.txt" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP12.txt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP2.txt" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP3.txt" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP4.txt" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP5.txt" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP6.txt" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP7.txt" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP8.txt" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP9.txt" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP1.txt" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP10.txt" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP11.txt" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP12.txt" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP2.txt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP3.txt" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP4.txt" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP5.txt" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP6.txt" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP7.txt" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP8.txt" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP9.txt" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,25 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,69 +437,45 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C1" t="n">
         <v>0</v>
       </c>
       <c r="D1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1" t="n">
+        <v>25</v>
+      </c>
+      <c r="G1" t="n">
         <v>13</v>
       </c>
-      <c r="E1" t="n">
-        <v>87</v>
-      </c>
-      <c r="F1" t="n">
+      <c r="H1" t="n">
+        <v>41</v>
+      </c>
+      <c r="I1" t="n">
+        <v>19</v>
+      </c>
+      <c r="J1" t="n">
         <v>42</v>
       </c>
-      <c r="G1" t="n">
-        <v>43</v>
-      </c>
-      <c r="H1" t="n">
-        <v>15</v>
-      </c>
-      <c r="I1" t="n">
-        <v>57</v>
-      </c>
-      <c r="J1" t="n">
-        <v>2</v>
-      </c>
       <c r="K1" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="L1" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="M1" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N1" t="n">
-        <v>86</v>
+        <v>147.7717622439291</v>
       </c>
       <c r="O1" t="n">
-        <v>44</v>
-      </c>
-      <c r="P1" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R1" t="n">
-        <v>14</v>
-      </c>
-      <c r="S1" t="n">
-        <v>38</v>
-      </c>
-      <c r="T1" t="n">
-        <v>67</v>
-      </c>
-      <c r="U1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V1" t="n">
-        <v>295.5415607841106</v>
-      </c>
-      <c r="W1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -530,94 +487,46 @@
         <v>27</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E2" t="n">
         <v>28</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2" t="n">
         <v>26</v>
       </c>
-      <c r="E2" t="n">
-        <v>12</v>
-      </c>
-      <c r="F2" t="n">
-        <v>80</v>
-      </c>
-      <c r="G2" t="n">
-        <v>68</v>
-      </c>
       <c r="H2" t="n">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="J2" t="n">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="K2" t="n">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N2" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>130.7614257464832</v>
       </c>
       <c r="P2" t="n">
-        <v>69</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>50</v>
-      </c>
-      <c r="S2" t="n">
-        <v>76</v>
-      </c>
-      <c r="T2" t="n">
-        <v>33</v>
-      </c>
-      <c r="U2" t="n">
-        <v>81</v>
-      </c>
-      <c r="V2" t="n">
-        <v>9</v>
-      </c>
-      <c r="W2" t="n">
-        <v>51</v>
-      </c>
-      <c r="X2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>63</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>272.3594160791871</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -625,102 +534,66 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D3" t="n">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="G3" t="n">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I3" t="n">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="K3" t="n">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="L3" t="n">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="M3" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="P3" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="S3" t="n">
         <v>18</v>
       </c>
       <c r="T3" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>84</v>
+        <v>241.8440618821619</v>
       </c>
       <c r="V3" t="n">
-        <v>5</v>
-      </c>
-      <c r="W3" t="n">
-        <v>45</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>82</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>47</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>252.8787948984658</v>
-      </c>
-      <c r="AH3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -729,105 +602,54 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
+        <v>38</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>34</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
+      <c r="I4" t="n">
         <v>21</v>
       </c>
-      <c r="E4" t="n">
-        <v>73</v>
-      </c>
-      <c r="F4" t="n">
-        <v>72</v>
-      </c>
-      <c r="G4" t="n">
-        <v>74</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22</v>
-      </c>
-      <c r="I4" t="n">
-        <v>41</v>
-      </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="K4" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="L4" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>25</v>
+        <v>138.4065027060655</v>
       </c>
       <c r="O4" t="n">
-        <v>55</v>
-      </c>
-      <c r="P4" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>46</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>31</v>
-      </c>
-      <c r="T4" t="n">
-        <v>88</v>
-      </c>
-      <c r="U4" t="n">
-        <v>62</v>
-      </c>
-      <c r="V4" t="n">
-        <v>10</v>
-      </c>
-      <c r="W4" t="n">
-        <v>11</v>
-      </c>
-      <c r="X4" t="n">
-        <v>64</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>54</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>376.1442374447833</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1196.924009206547</v>
+        <v>658.7837525786396</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01435637474060059</v>
+        <v>0.003658294677734375</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1406,7 +1228,737 @@
         <v>1641.509741456554</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0326235294342041</v>
+        <v>0.03180766105651855</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AY6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1" t="n">
+        <v>111</v>
+      </c>
+      <c r="G1" t="n">
+        <v>58</v>
+      </c>
+      <c r="H1" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1" t="n">
+        <v>99</v>
+      </c>
+      <c r="J1" t="n">
+        <v>179</v>
+      </c>
+      <c r="K1" t="n">
+        <v>167</v>
+      </c>
+      <c r="L1" t="n">
+        <v>65</v>
+      </c>
+      <c r="M1" t="n">
+        <v>46</v>
+      </c>
+      <c r="N1" t="n">
+        <v>176</v>
+      </c>
+      <c r="O1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1" t="n">
+        <v>117</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>182</v>
+      </c>
+      <c r="R1" t="n">
+        <v>63</v>
+      </c>
+      <c r="S1" t="n">
+        <v>107</v>
+      </c>
+      <c r="T1" t="n">
+        <v>24</v>
+      </c>
+      <c r="U1" t="n">
+        <v>144</v>
+      </c>
+      <c r="V1" t="n">
+        <v>74</v>
+      </c>
+      <c r="W1" t="n">
+        <v>23</v>
+      </c>
+      <c r="X1" t="n">
+        <v>160</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>115</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>68</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>187</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>72</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>118</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>56</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>162</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>131</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>77</v>
+      </c>
+      <c r="AO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>264.0857327393055</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>152</v>
+      </c>
+      <c r="C2" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" t="n">
+        <v>139</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>157</v>
+      </c>
+      <c r="H2" t="n">
+        <v>86</v>
+      </c>
+      <c r="I2" t="n">
+        <v>112</v>
+      </c>
+      <c r="J2" t="n">
+        <v>66</v>
+      </c>
+      <c r="K2" t="n">
+        <v>194</v>
+      </c>
+      <c r="L2" t="n">
+        <v>196</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>191</v>
+      </c>
+      <c r="O2" t="n">
+        <v>190</v>
+      </c>
+      <c r="P2" t="n">
+        <v>116</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>151</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>55</v>
+      </c>
+      <c r="U2" t="n">
+        <v>44</v>
+      </c>
+      <c r="V2" t="n">
+        <v>106</v>
+      </c>
+      <c r="W2" t="n">
+        <v>32</v>
+      </c>
+      <c r="X2" t="n">
+        <v>97</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>161</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>39</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>109</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>189</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>135</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>186</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>114</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>142</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>137</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>89</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>62</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>181</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>147</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>73</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>146</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>92</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>379.681529146761</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>61</v>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>105</v>
+      </c>
+      <c r="E3" t="n">
+        <v>96</v>
+      </c>
+      <c r="F3" t="n">
+        <v>188</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>159</v>
+      </c>
+      <c r="I3" t="n">
+        <v>67</v>
+      </c>
+      <c r="J3" t="n">
+        <v>104</v>
+      </c>
+      <c r="K3" t="n">
+        <v>183</v>
+      </c>
+      <c r="L3" t="n">
+        <v>49</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>125</v>
+      </c>
+      <c r="O3" t="n">
+        <v>98</v>
+      </c>
+      <c r="P3" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>29</v>
+      </c>
+      <c r="R3" t="n">
+        <v>59</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>103</v>
+      </c>
+      <c r="U3" t="n">
+        <v>88</v>
+      </c>
+      <c r="V3" t="n">
+        <v>37</v>
+      </c>
+      <c r="W3" t="n">
+        <v>138</v>
+      </c>
+      <c r="X3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>140</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>64</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>156</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>93</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>141</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>91</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>113</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>143</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>185</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>57</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>165</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>164</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>163</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>148</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>447.6228947688958</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>95</v>
+      </c>
+      <c r="C4" t="n">
+        <v>126</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>76</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G4" t="n">
+        <v>130</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J4" t="n">
+        <v>169</v>
+      </c>
+      <c r="K4" t="n">
+        <v>129</v>
+      </c>
+      <c r="L4" t="n">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>150</v>
+      </c>
+      <c r="N4" t="n">
+        <v>108</v>
+      </c>
+      <c r="O4" t="n">
+        <v>145</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>175</v>
+      </c>
+      <c r="R4" t="n">
+        <v>34</v>
+      </c>
+      <c r="S4" t="n">
+        <v>8</v>
+      </c>
+      <c r="T4" t="n">
+        <v>102</v>
+      </c>
+      <c r="U4" t="n">
+        <v>178</v>
+      </c>
+      <c r="V4" t="n">
+        <v>19</v>
+      </c>
+      <c r="W4" t="n">
+        <v>133</v>
+      </c>
+      <c r="X4" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>84</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>134</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>170</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>119</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>173</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>121</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>82</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>174</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>94</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>83</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>128</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>69</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>390.0386208104568</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>127</v>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>81</v>
+      </c>
+      <c r="G5" t="n">
+        <v>168</v>
+      </c>
+      <c r="H5" t="n">
+        <v>149</v>
+      </c>
+      <c r="I5" t="n">
+        <v>51</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>132</v>
+      </c>
+      <c r="L5" t="n">
+        <v>180</v>
+      </c>
+      <c r="M5" t="n">
+        <v>35</v>
+      </c>
+      <c r="N5" t="n">
+        <v>78</v>
+      </c>
+      <c r="O5" t="n">
+        <v>177</v>
+      </c>
+      <c r="P5" t="n">
+        <v>123</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>154</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>193</v>
+      </c>
+      <c r="T5" t="n">
+        <v>195</v>
+      </c>
+      <c r="U5" t="n">
+        <v>53</v>
+      </c>
+      <c r="V5" t="n">
+        <v>198</v>
+      </c>
+      <c r="W5" t="n">
+        <v>158</v>
+      </c>
+      <c r="X5" t="n">
+        <v>192</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>184</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>199</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>136</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>197</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>172</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>171</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>47</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>155</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>122</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>166</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>124</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>79</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>153</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>287.9311108409495</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1769.359888306368</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.05397176742553711</v>
       </c>
     </row>
   </sheetData>
@@ -1556,7 +2108,7 @@
         <v>264.0857327393055</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -2136,737 +2688,7 @@
         <v>1769.359888306368</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05327868461608887</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AY6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E1" t="n">
-        <v>87</v>
-      </c>
-      <c r="F1" t="n">
-        <v>111</v>
-      </c>
-      <c r="G1" t="n">
-        <v>58</v>
-      </c>
-      <c r="H1" t="n">
-        <v>27</v>
-      </c>
-      <c r="I1" t="n">
-        <v>99</v>
-      </c>
-      <c r="J1" t="n">
-        <v>179</v>
-      </c>
-      <c r="K1" t="n">
-        <v>167</v>
-      </c>
-      <c r="L1" t="n">
-        <v>65</v>
-      </c>
-      <c r="M1" t="n">
-        <v>46</v>
-      </c>
-      <c r="N1" t="n">
-        <v>176</v>
-      </c>
-      <c r="O1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P1" t="n">
-        <v>117</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>182</v>
-      </c>
-      <c r="R1" t="n">
-        <v>63</v>
-      </c>
-      <c r="S1" t="n">
-        <v>107</v>
-      </c>
-      <c r="T1" t="n">
-        <v>24</v>
-      </c>
-      <c r="U1" t="n">
-        <v>144</v>
-      </c>
-      <c r="V1" t="n">
-        <v>74</v>
-      </c>
-      <c r="W1" t="n">
-        <v>23</v>
-      </c>
-      <c r="X1" t="n">
-        <v>160</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>115</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>68</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>187</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>72</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>118</v>
-      </c>
-      <c r="AF1" t="n">
-        <v>56</v>
-      </c>
-      <c r="AG1" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH1" t="n">
-        <v>110</v>
-      </c>
-      <c r="AI1" t="n">
-        <v>162</v>
-      </c>
-      <c r="AJ1" t="n">
-        <v>31</v>
-      </c>
-      <c r="AK1" t="n">
-        <v>131</v>
-      </c>
-      <c r="AL1" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM1" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN1" t="n">
-        <v>77</v>
-      </c>
-      <c r="AO1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP1" t="n">
-        <v>264.0857327393055</v>
-      </c>
-      <c r="AQ1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>152</v>
-      </c>
-      <c r="C2" t="n">
-        <v>54</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30</v>
-      </c>
-      <c r="E2" t="n">
-        <v>139</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>157</v>
-      </c>
-      <c r="H2" t="n">
-        <v>86</v>
-      </c>
-      <c r="I2" t="n">
-        <v>112</v>
-      </c>
-      <c r="J2" t="n">
-        <v>66</v>
-      </c>
-      <c r="K2" t="n">
-        <v>194</v>
-      </c>
-      <c r="L2" t="n">
-        <v>196</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>191</v>
-      </c>
-      <c r="O2" t="n">
-        <v>190</v>
-      </c>
-      <c r="P2" t="n">
-        <v>116</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>151</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3</v>
-      </c>
-      <c r="T2" t="n">
-        <v>55</v>
-      </c>
-      <c r="U2" t="n">
-        <v>44</v>
-      </c>
-      <c r="V2" t="n">
-        <v>106</v>
-      </c>
-      <c r="W2" t="n">
-        <v>32</v>
-      </c>
-      <c r="X2" t="n">
-        <v>97</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>161</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>39</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>109</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>189</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>135</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>186</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>114</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>142</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>137</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>89</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>62</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>181</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>147</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>73</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>146</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>92</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>379.681529146761</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>61</v>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>105</v>
-      </c>
-      <c r="E3" t="n">
-        <v>96</v>
-      </c>
-      <c r="F3" t="n">
-        <v>188</v>
-      </c>
-      <c r="G3" t="n">
-        <v>16</v>
-      </c>
-      <c r="H3" t="n">
-        <v>159</v>
-      </c>
-      <c r="I3" t="n">
-        <v>67</v>
-      </c>
-      <c r="J3" t="n">
-        <v>104</v>
-      </c>
-      <c r="K3" t="n">
-        <v>183</v>
-      </c>
-      <c r="L3" t="n">
-        <v>49</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>125</v>
-      </c>
-      <c r="O3" t="n">
-        <v>98</v>
-      </c>
-      <c r="P3" t="n">
-        <v>45</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>29</v>
-      </c>
-      <c r="R3" t="n">
-        <v>59</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>103</v>
-      </c>
-      <c r="U3" t="n">
-        <v>88</v>
-      </c>
-      <c r="V3" t="n">
-        <v>37</v>
-      </c>
-      <c r="W3" t="n">
-        <v>138</v>
-      </c>
-      <c r="X3" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>140</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>64</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>156</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>93</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>141</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>91</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>113</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>143</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>185</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>57</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>52</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>165</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>164</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>163</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>148</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>447.6228947688958</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>95</v>
-      </c>
-      <c r="C4" t="n">
-        <v>126</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17</v>
-      </c>
-      <c r="E4" t="n">
-        <v>76</v>
-      </c>
-      <c r="F4" t="n">
-        <v>40</v>
-      </c>
-      <c r="G4" t="n">
-        <v>130</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12</v>
-      </c>
-      <c r="I4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J4" t="n">
-        <v>169</v>
-      </c>
-      <c r="K4" t="n">
-        <v>129</v>
-      </c>
-      <c r="L4" t="n">
-        <v>71</v>
-      </c>
-      <c r="M4" t="n">
-        <v>150</v>
-      </c>
-      <c r="N4" t="n">
-        <v>108</v>
-      </c>
-      <c r="O4" t="n">
-        <v>145</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>175</v>
-      </c>
-      <c r="R4" t="n">
-        <v>34</v>
-      </c>
-      <c r="S4" t="n">
-        <v>8</v>
-      </c>
-      <c r="T4" t="n">
-        <v>102</v>
-      </c>
-      <c r="U4" t="n">
-        <v>178</v>
-      </c>
-      <c r="V4" t="n">
-        <v>19</v>
-      </c>
-      <c r="W4" t="n">
-        <v>133</v>
-      </c>
-      <c r="X4" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>134</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>170</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>119</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>173</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>121</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>82</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>174</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>94</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>83</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>128</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>69</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>390.0386208104568</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>127</v>
-      </c>
-      <c r="C5" t="n">
-        <v>60</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>81</v>
-      </c>
-      <c r="G5" t="n">
-        <v>168</v>
-      </c>
-      <c r="H5" t="n">
-        <v>149</v>
-      </c>
-      <c r="I5" t="n">
-        <v>51</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>132</v>
-      </c>
-      <c r="L5" t="n">
-        <v>180</v>
-      </c>
-      <c r="M5" t="n">
-        <v>35</v>
-      </c>
-      <c r="N5" t="n">
-        <v>78</v>
-      </c>
-      <c r="O5" t="n">
-        <v>177</v>
-      </c>
-      <c r="P5" t="n">
-        <v>123</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>154</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>193</v>
-      </c>
-      <c r="T5" t="n">
-        <v>195</v>
-      </c>
-      <c r="U5" t="n">
-        <v>53</v>
-      </c>
-      <c r="V5" t="n">
-        <v>198</v>
-      </c>
-      <c r="W5" t="n">
-        <v>158</v>
-      </c>
-      <c r="X5" t="n">
-        <v>192</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>184</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>43</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>199</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>136</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>197</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>172</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>171</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>47</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>155</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>122</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>166</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>124</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>79</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>153</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>287.9311108409495</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1769.359888306368</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.06597590446472168</v>
+        <v>0.04953312873840332</v>
       </c>
     </row>
   </sheetData>
@@ -2875,245 +2697,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:V5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" t="n">
-        <v>46</v>
-      </c>
-      <c r="C1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" t="n">
-        <v>6</v>
-      </c>
-      <c r="E1" t="n">
-        <v>14</v>
-      </c>
-      <c r="F1" t="n">
-        <v>25</v>
-      </c>
-      <c r="G1" t="n">
-        <v>13</v>
-      </c>
-      <c r="H1" t="n">
-        <v>41</v>
-      </c>
-      <c r="I1" t="n">
-        <v>19</v>
-      </c>
-      <c r="J1" t="n">
-        <v>42</v>
-      </c>
-      <c r="K1" t="n">
-        <v>44</v>
-      </c>
-      <c r="L1" t="n">
-        <v>40</v>
-      </c>
-      <c r="M1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N1" t="n">
-        <v>147.7717622439291</v>
-      </c>
-      <c r="O1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>27</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E2" t="n">
-        <v>28</v>
-      </c>
-      <c r="F2" t="n">
-        <v>31</v>
-      </c>
-      <c r="G2" t="n">
-        <v>26</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-      <c r="I2" t="n">
-        <v>48</v>
-      </c>
-      <c r="J2" t="n">
-        <v>23</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7</v>
-      </c>
-      <c r="L2" t="n">
-        <v>43</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>130.7614257464832</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>12</v>
-      </c>
-      <c r="C3" t="n">
-        <v>47</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>17</v>
-      </c>
-      <c r="F3" t="n">
-        <v>37</v>
-      </c>
-      <c r="G3" t="n">
-        <v>15</v>
-      </c>
-      <c r="H3" t="n">
-        <v>45</v>
-      </c>
-      <c r="I3" t="n">
-        <v>33</v>
-      </c>
-      <c r="J3" t="n">
-        <v>39</v>
-      </c>
-      <c r="K3" t="n">
-        <v>10</v>
-      </c>
-      <c r="L3" t="n">
-        <v>49</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>16</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>35</v>
-      </c>
-      <c r="S3" t="n">
-        <v>18</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>241.8440618821619</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>32</v>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>38</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9</v>
-      </c>
-      <c r="F4" t="n">
-        <v>50</v>
-      </c>
-      <c r="G4" t="n">
-        <v>34</v>
-      </c>
-      <c r="H4" t="n">
-        <v>30</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29</v>
-      </c>
-      <c r="K4" t="n">
-        <v>20</v>
-      </c>
-      <c r="L4" t="n">
-        <v>36</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>138.4065027060655</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>658.7837525786396</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.003927230834960938</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3557,7 +3140,430 @@
         <v>1621.788774186502</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01865839958190918</v>
+        <v>0.01856255531311035</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1" t="n">
+        <v>21</v>
+      </c>
+      <c r="D1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E1" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1" t="n">
+        <v>27</v>
+      </c>
+      <c r="G1" t="n">
+        <v>28</v>
+      </c>
+      <c r="H1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1" t="n">
+        <v>26</v>
+      </c>
+      <c r="L1" t="n">
+        <v>23</v>
+      </c>
+      <c r="M1" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1" t="n">
+        <v>9</v>
+      </c>
+      <c r="P1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>57</v>
+      </c>
+      <c r="R1" t="n">
+        <v>54</v>
+      </c>
+      <c r="S1" t="n">
+        <v>56</v>
+      </c>
+      <c r="T1" t="n">
+        <v>58</v>
+      </c>
+      <c r="U1" t="n">
+        <v>60</v>
+      </c>
+      <c r="V1" t="n">
+        <v>79</v>
+      </c>
+      <c r="W1" t="n">
+        <v>77</v>
+      </c>
+      <c r="X1" t="n">
+        <v>73</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>76</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>253.3549476257784</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>67</v>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D2" t="n">
+        <v>63</v>
+      </c>
+      <c r="E2" t="n">
+        <v>62</v>
+      </c>
+      <c r="F2" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2" t="n">
+        <v>72</v>
+      </c>
+      <c r="H2" t="n">
+        <v>61</v>
+      </c>
+      <c r="I2" t="n">
+        <v>64</v>
+      </c>
+      <c r="J2" t="n">
+        <v>68</v>
+      </c>
+      <c r="K2" t="n">
+        <v>69</v>
+      </c>
+      <c r="L2" t="n">
+        <v>66</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>32</v>
+      </c>
+      <c r="O2" t="n">
+        <v>33</v>
+      </c>
+      <c r="P2" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>38</v>
+      </c>
+      <c r="R2" t="n">
+        <v>39</v>
+      </c>
+      <c r="S2" t="n">
+        <v>34</v>
+      </c>
+      <c r="T2" t="n">
+        <v>35</v>
+      </c>
+      <c r="U2" t="n">
+        <v>31</v>
+      </c>
+      <c r="V2" t="n">
+        <v>80</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>256.9644645406177</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>75</v>
+      </c>
+      <c r="K3" t="n">
+        <v>98</v>
+      </c>
+      <c r="L3" t="n">
+        <v>96</v>
+      </c>
+      <c r="M3" t="n">
+        <v>94</v>
+      </c>
+      <c r="N3" t="n">
+        <v>99</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>97</v>
+      </c>
+      <c r="R3" t="n">
+        <v>93</v>
+      </c>
+      <c r="S3" t="n">
+        <v>92</v>
+      </c>
+      <c r="T3" t="n">
+        <v>81</v>
+      </c>
+      <c r="U3" t="n">
+        <v>78</v>
+      </c>
+      <c r="V3" t="n">
+        <v>71</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>278.9580394147321</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>43</v>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44</v>
+      </c>
+      <c r="E4" t="n">
+        <v>45</v>
+      </c>
+      <c r="F4" t="n">
+        <v>48</v>
+      </c>
+      <c r="G4" t="n">
+        <v>51</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="n">
+        <v>52</v>
+      </c>
+      <c r="J4" t="n">
+        <v>49</v>
+      </c>
+      <c r="K4" t="n">
+        <v>47</v>
+      </c>
+      <c r="L4" t="n">
+        <v>46</v>
+      </c>
+      <c r="M4" t="n">
+        <v>40</v>
+      </c>
+      <c r="N4" t="n">
+        <v>41</v>
+      </c>
+      <c r="O4" t="n">
+        <v>59</v>
+      </c>
+      <c r="P4" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>53</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>126.210667300673</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>90</v>
+      </c>
+      <c r="C5" t="n">
+        <v>89</v>
+      </c>
+      <c r="D5" t="n">
+        <v>88</v>
+      </c>
+      <c r="E5" t="n">
+        <v>85</v>
+      </c>
+      <c r="F5" t="n">
+        <v>84</v>
+      </c>
+      <c r="G5" t="n">
+        <v>83</v>
+      </c>
+      <c r="H5" t="n">
+        <v>82</v>
+      </c>
+      <c r="I5" t="n">
+        <v>86</v>
+      </c>
+      <c r="J5" t="n">
+        <v>87</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91</v>
+      </c>
+      <c r="L5" t="n">
+        <v>95</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>70</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>231.540542976944</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" t="n">
+        <v>19</v>
+      </c>
+      <c r="F6" t="n">
+        <v>15</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>14</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>36</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>137.8825422108219</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1284.911204069567</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.01344656944274902</v>
       </c>
     </row>
   </sheetData>
@@ -3980,7 +3986,7 @@
         <v>1284.911204069567</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0137486457824707</v>
+        <v>0.01328372955322266</v>
       </c>
     </row>
   </sheetData>
@@ -3989,429 +3995,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AB7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" t="n">
-        <v>20</v>
-      </c>
-      <c r="C1" t="n">
-        <v>21</v>
-      </c>
-      <c r="D1" t="n">
-        <v>22</v>
-      </c>
-      <c r="E1" t="n">
-        <v>25</v>
-      </c>
-      <c r="F1" t="n">
-        <v>27</v>
-      </c>
-      <c r="G1" t="n">
-        <v>28</v>
-      </c>
-      <c r="H1" t="n">
-        <v>30</v>
-      </c>
-      <c r="I1" t="n">
-        <v>29</v>
-      </c>
-      <c r="J1" t="n">
-        <v>24</v>
-      </c>
-      <c r="K1" t="n">
-        <v>26</v>
-      </c>
-      <c r="L1" t="n">
-        <v>23</v>
-      </c>
-      <c r="M1" t="n">
-        <v>10</v>
-      </c>
-      <c r="N1" t="n">
-        <v>11</v>
-      </c>
-      <c r="O1" t="n">
-        <v>9</v>
-      </c>
-      <c r="P1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>57</v>
-      </c>
-      <c r="R1" t="n">
-        <v>54</v>
-      </c>
-      <c r="S1" t="n">
-        <v>56</v>
-      </c>
-      <c r="T1" t="n">
-        <v>58</v>
-      </c>
-      <c r="U1" t="n">
-        <v>60</v>
-      </c>
-      <c r="V1" t="n">
-        <v>79</v>
-      </c>
-      <c r="W1" t="n">
-        <v>77</v>
-      </c>
-      <c r="X1" t="n">
-        <v>73</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>253.3549476257784</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>67</v>
-      </c>
-      <c r="C2" t="n">
-        <v>65</v>
-      </c>
-      <c r="D2" t="n">
-        <v>63</v>
-      </c>
-      <c r="E2" t="n">
-        <v>62</v>
-      </c>
-      <c r="F2" t="n">
-        <v>74</v>
-      </c>
-      <c r="G2" t="n">
-        <v>72</v>
-      </c>
-      <c r="H2" t="n">
-        <v>61</v>
-      </c>
-      <c r="I2" t="n">
-        <v>64</v>
-      </c>
-      <c r="J2" t="n">
-        <v>68</v>
-      </c>
-      <c r="K2" t="n">
-        <v>69</v>
-      </c>
-      <c r="L2" t="n">
-        <v>66</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>32</v>
-      </c>
-      <c r="O2" t="n">
-        <v>33</v>
-      </c>
-      <c r="P2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>38</v>
-      </c>
-      <c r="R2" t="n">
-        <v>39</v>
-      </c>
-      <c r="S2" t="n">
-        <v>34</v>
-      </c>
-      <c r="T2" t="n">
-        <v>35</v>
-      </c>
-      <c r="U2" t="n">
-        <v>31</v>
-      </c>
-      <c r="V2" t="n">
-        <v>80</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>256.9644645406177</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G3" t="n">
-        <v>7</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>75</v>
-      </c>
-      <c r="K3" t="n">
-        <v>98</v>
-      </c>
-      <c r="L3" t="n">
-        <v>96</v>
-      </c>
-      <c r="M3" t="n">
-        <v>94</v>
-      </c>
-      <c r="N3" t="n">
-        <v>99</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>97</v>
-      </c>
-      <c r="R3" t="n">
-        <v>93</v>
-      </c>
-      <c r="S3" t="n">
-        <v>92</v>
-      </c>
-      <c r="T3" t="n">
-        <v>81</v>
-      </c>
-      <c r="U3" t="n">
-        <v>78</v>
-      </c>
-      <c r="V3" t="n">
-        <v>71</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>278.9580394147321</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>43</v>
-      </c>
-      <c r="C4" t="n">
-        <v>42</v>
-      </c>
-      <c r="D4" t="n">
-        <v>44</v>
-      </c>
-      <c r="E4" t="n">
-        <v>45</v>
-      </c>
-      <c r="F4" t="n">
-        <v>48</v>
-      </c>
-      <c r="G4" t="n">
-        <v>51</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="n">
-        <v>52</v>
-      </c>
-      <c r="J4" t="n">
-        <v>49</v>
-      </c>
-      <c r="K4" t="n">
-        <v>47</v>
-      </c>
-      <c r="L4" t="n">
-        <v>46</v>
-      </c>
-      <c r="M4" t="n">
-        <v>40</v>
-      </c>
-      <c r="N4" t="n">
-        <v>41</v>
-      </c>
-      <c r="O4" t="n">
-        <v>59</v>
-      </c>
-      <c r="P4" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>53</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>126.210667300673</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>90</v>
-      </c>
-      <c r="C5" t="n">
-        <v>89</v>
-      </c>
-      <c r="D5" t="n">
-        <v>88</v>
-      </c>
-      <c r="E5" t="n">
-        <v>85</v>
-      </c>
-      <c r="F5" t="n">
-        <v>84</v>
-      </c>
-      <c r="G5" t="n">
-        <v>83</v>
-      </c>
-      <c r="H5" t="n">
-        <v>82</v>
-      </c>
-      <c r="I5" t="n">
-        <v>86</v>
-      </c>
-      <c r="J5" t="n">
-        <v>87</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91</v>
-      </c>
-      <c r="L5" t="n">
-        <v>95</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>70</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>231.540542976944</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>13</v>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18</v>
-      </c>
-      <c r="E6" t="n">
-        <v>19</v>
-      </c>
-      <c r="F6" t="n">
-        <v>15</v>
-      </c>
-      <c r="G6" t="n">
-        <v>16</v>
-      </c>
-      <c r="H6" t="n">
-        <v>14</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>36</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>137.8825422108219</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1284.911204069567</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.01383709907531738</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4743,7 +4326,7 @@
         <v>1191.328027220533</v>
       </c>
       <c r="B6" t="n">
-        <v>0.008395671844482422</v>
+        <v>0.008402347564697266</v>
       </c>
     </row>
   </sheetData>
@@ -4751,7 +4334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5094,7 +4677,7 @@
         <v>1191.328027220533</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01135802268981934</v>
+        <v>0.007995128631591797</v>
       </c>
     </row>
   </sheetData>
@@ -5102,7 +4685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5456,7 +5039,405 @@
         <v>1191.328027220533</v>
       </c>
       <c r="B8" t="n">
-        <v>0.009534597396850586</v>
+        <v>0.008240461349487305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AH5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>53</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1" t="n">
+        <v>42</v>
+      </c>
+      <c r="G1" t="n">
+        <v>43</v>
+      </c>
+      <c r="H1" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1" t="n">
+        <v>57</v>
+      </c>
+      <c r="J1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1" t="n">
+        <v>59</v>
+      </c>
+      <c r="L1" t="n">
+        <v>61</v>
+      </c>
+      <c r="M1" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1" t="n">
+        <v>86</v>
+      </c>
+      <c r="O1" t="n">
+        <v>44</v>
+      </c>
+      <c r="P1" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1" t="n">
+        <v>14</v>
+      </c>
+      <c r="S1" t="n">
+        <v>38</v>
+      </c>
+      <c r="T1" t="n">
+        <v>67</v>
+      </c>
+      <c r="U1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V1" t="n">
+        <v>295.5415607841106</v>
+      </c>
+      <c r="W1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2" t="n">
+        <v>68</v>
+      </c>
+      <c r="H2" t="n">
+        <v>77</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>79</v>
+      </c>
+      <c r="K2" t="n">
+        <v>78</v>
+      </c>
+      <c r="L2" t="n">
+        <v>34</v>
+      </c>
+      <c r="M2" t="n">
+        <v>35</v>
+      </c>
+      <c r="N2" t="n">
+        <v>71</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>50</v>
+      </c>
+      <c r="S2" t="n">
+        <v>76</v>
+      </c>
+      <c r="T2" t="n">
+        <v>33</v>
+      </c>
+      <c r="U2" t="n">
+        <v>81</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9</v>
+      </c>
+      <c r="W2" t="n">
+        <v>51</v>
+      </c>
+      <c r="X2" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>66</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>63</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>272.3594160791871</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>89</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>94</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95</v>
+      </c>
+      <c r="F3" t="n">
+        <v>97</v>
+      </c>
+      <c r="G3" t="n">
+        <v>92</v>
+      </c>
+      <c r="H3" t="n">
+        <v>37</v>
+      </c>
+      <c r="I3" t="n">
+        <v>98</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+      <c r="K3" t="n">
+        <v>91</v>
+      </c>
+      <c r="L3" t="n">
+        <v>85</v>
+      </c>
+      <c r="M3" t="n">
+        <v>93</v>
+      </c>
+      <c r="N3" t="n">
+        <v>99</v>
+      </c>
+      <c r="O3" t="n">
+        <v>96</v>
+      </c>
+      <c r="P3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>52</v>
+      </c>
+      <c r="S3" t="n">
+        <v>18</v>
+      </c>
+      <c r="T3" t="n">
+        <v>83</v>
+      </c>
+      <c r="U3" t="n">
+        <v>84</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>45</v>
+      </c>
+      <c r="X3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>82</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>47</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>252.8787948984658</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>58</v>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21</v>
+      </c>
+      <c r="E4" t="n">
+        <v>73</v>
+      </c>
+      <c r="F4" t="n">
+        <v>72</v>
+      </c>
+      <c r="G4" t="n">
+        <v>74</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22</v>
+      </c>
+      <c r="I4" t="n">
+        <v>41</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>56</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23</v>
+      </c>
+      <c r="M4" t="n">
+        <v>39</v>
+      </c>
+      <c r="N4" t="n">
+        <v>25</v>
+      </c>
+      <c r="O4" t="n">
+        <v>55</v>
+      </c>
+      <c r="P4" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>46</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>31</v>
+      </c>
+      <c r="T4" t="n">
+        <v>88</v>
+      </c>
+      <c r="U4" t="n">
+        <v>62</v>
+      </c>
+      <c r="V4" t="n">
+        <v>10</v>
+      </c>
+      <c r="W4" t="n">
+        <v>11</v>
+      </c>
+      <c r="X4" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>49</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>54</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>376.1442374447833</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1196.924009206547</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01430344581604004</v>
       </c>
     </row>
   </sheetData>
@@ -5854,7 +5835,7 @@
         <v>1196.924009206547</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01431107521057129</v>
+        <v>0.01404547691345215</v>
       </c>
     </row>
   </sheetData>
